--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/angela_pasol_uipath_com/Documents/Desktop/Developer Advanced 21.10/REF PHASE 2/01. Intro to REF/REFramework Introduction - Process Files/REFramework Introduction - Process Files/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Teixeira\Documents\UiPath\REFrameWork_Introdução\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0BA3E7E4-86F0-4389-A7A1-AA3100D8DE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A539D90B-A562-40EE-BAFF-F2D1624C53B9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10335C1-3A79-4C94-ACBD-5F736D0DB842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34224" yWindow="888" windowWidth="14400" windowHeight="10788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -268,9 +268,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -308,7 +308,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -414,7 +414,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -556,7 +556,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -566,16 +566,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.54296875" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -623,7 +623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5">
+    <row r="3" spans="1:26" ht="43.2">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -634,7 +634,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="29">
+    <row r="4" spans="1:26" ht="28.8">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1668,12 +1668,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="56.81640625" customWidth="1"/>
-    <col min="3" max="3" width="75.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="56.77734375" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1710,7 +1710,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="29">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="6" customFormat="1" ht="43.5">
+    <row r="3" spans="1:26" s="6" customFormat="1" ht="43.2">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
@@ -1835,7 +1835,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" s="6" customFormat="1" ht="29">
+    <row r="17" spans="1:3" s="6" customFormat="1" ht="28.8">
       <c r="A17" s="6" t="s">
         <v>39</v>
       </c>
@@ -2827,16 +2827,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.81640625" customWidth="1"/>
-    <col min="2" max="2" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.26953125" customWidth="1"/>
-    <col min="4" max="26" width="65.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.21875" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2881,6 +2881,9 @@
       </c>
       <c r="B2" s="5" t="s">
         <v>45</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
